--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_graph_spectral_filtering_cutoff_rank_3.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_graph_spectral_filtering_cutoff_rank_3.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="graph_spectral_filtering_1.0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="graph_spectral_filtering_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="graph_spectral_filtering_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="graph_spectral_filtering_0.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="graph_spectral_filtering_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="graph_spectral_filtering_0.1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="graph_spectral_filtering_0.05" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1688,4 +1693,3179 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73.38151714115175</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6854156426464518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7338151714115174</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7169579401682442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.43576501526829</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6460939419766267</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.744357650152683</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7360644822580646</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.23713007897992</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6944855742156506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7223713007897993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7046612681800454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.82891720516614</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8057629475990931</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6282891720516613</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6172936921837516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>69.97664339656917</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7143971013526121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6997664339656917</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6945411019736039</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.18011401482712</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.824382520467043</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6118011401482712</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5961883067609177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.10244898312268</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5802241943776607</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7310244898312269</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7172691779784517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.3418887706641</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6147697874965766</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.723418887706641</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7138895516220993</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>80.01228384328584</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4797564127172033</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8001228384328585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7996251134989013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.24213877282675</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6900604496399562</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7124213877282675</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7082405840574429</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.78805179975606</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8036128461360932</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6878805179975604</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6731123318250196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.78604486197978</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8953292476634184</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6678604486197978</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.658526303398677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>57.49037621432711</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9438931405544281</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5749037621432711</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.568790162394706</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>61.16938727843667</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9109402408202489</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6116938727843666</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6031873625166602</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>58.72429692298376</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.035532023012638</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5872429692298377</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5583644195868395</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.51475358783379</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5633294373750687</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.755147535878338</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7528465009159044</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>72.55529892127095</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7089628770481795</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7255529892127095</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7200959295417438</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>80.48374120883399</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4876808444658915</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8048374120883398</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.798989123904754</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>59.75726433619668</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.005160725923876</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5975726433619668</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5789045210929007</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>57.84626164586199</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9409039945652088</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5784626164586198</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5740488359810259</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>69.26781373541294</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6766220822930336</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6926781373541294</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6922780188950668</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>64.17356551527263</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7845269910991192</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6417356551527262</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6374842955432221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>74.91457538560022</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5312993038445711</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7491457538560022</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7511479717876026</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>64.61829254578326</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7360682934522629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6461829254578327</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6419405955030626</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>62.43367157155338</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8569491602480411</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6243367157155338</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6101048739370188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>55.67106981894307</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.017266152054071</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5567106981894308</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5408597569614636</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>61.42483931521899</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8927737742662429</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6142483931521899</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5954427121701613</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>83.19535636121421</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4555845875293016</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8319535636121419</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8292063971512789</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>87.75750655282485</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3314168316234524</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8775750655282485</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.875901466778054</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>84.67841417313299</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4281259063010414</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8467841417313299</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8452693671674881</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>69.2663142991433</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7247109010921687</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6926631429914332</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6837077388578057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.88523257121601</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6964140521983305</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7288523257121602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7110062426968865</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.90531925016653</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.64428155173858</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7490531925016652</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7409283724402116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.35323834981271</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6338504068553448</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7435323834981272</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7316429670122431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.06023408506994</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.844525120407343</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6306023408506994</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6100515860319417</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>69.09030354933866</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7648966128627459</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6909030354933867</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.685582109547809</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62.17960362978918</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7905294681588809</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6217960362978918</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6144247314707746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>71.48435540099828</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7146450915761913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7148435540099827</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7000940184331663</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>74.22443100718864</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5500276905174056</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7422443100718865</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7378776874080732</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.97392711009611</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5225207184441387</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7597392711009612</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7531601461660575</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.9990138322996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7909634752819936</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6599901383229959</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.637550544191583</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>66.31225183608855</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7955988064408303</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6631225183608855</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6563403505636349</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.11000960215918</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8029557506243388</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6711000960215918</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6659244833828462</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>56.5773060320591</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9590843205650648</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.565773060320591</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5525830724331184</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>62.25633439735638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8757049625118574</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6225633439735637</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6098830744729175</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>59.39878372650283</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.017527280251185</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5939878372650282</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5703221540003658</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>72.98168669279146</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6327040274937947</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7298168669279146</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7254407386447017</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>73.88013737143055</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7007910583168269</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7388013737143055</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7339932590555549</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>81.54274690957534</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4501606519644459</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8154274690957534</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8144936073616155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>62.65633785759393</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9227660144368807</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6265633785759392</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6143011191136357</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>56.39685464407131</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9795257640692094</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5639685464407131</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5511130640526326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>69.44878415903251</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6941808837155501</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6944878415903252</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6870323922115567</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>65.00540662116455</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7984431862831116</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6500540662116454</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6391304362224247</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>71.26402477530083</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.599771448597312</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7126402477530083</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7040803298060843</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>66.15117777835448</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6980007054905097</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6615117777835449</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6595154715051885</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>58.30422408498343</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9831196253498395</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5830422408498344</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5600231677388094</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>53.40660386335522</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.042621682956815</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5340660386335522</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.520353245560025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>58.66841408662705</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.020169088244438</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5866841408662704</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5606469594388687</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>83.31802178219534</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4427712160473068</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8331802178219535</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8344578729406269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>87.51892317407591</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3264562584576197</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.875189231740759</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8732635081974269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>83.32303912663603</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.425274471923088</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8332303912663604</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8312905620652968</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>68.65589091024432</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7373427130593659</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6865589091024433</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6762169091388692</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.79862282545697</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7335487139721711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7079862282545697</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6900584890382314</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.41109352157025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7117836890121301</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7241109352157026</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7179165637056705</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.3918892031938</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7092290297150612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.723918892031938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6997042642510907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.5575221238938</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8558301908274493</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.595575221238938</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5768326814307678</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>69.2422944835163</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7665338645378749</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.692422944835163</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6863150072673847</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.70537807420479</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8231515840937694</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.617053780742048</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6064708414434797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.13422261438248</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5716705870504181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7613422261438247</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7502949652498778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71.9549477071601</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6498548072141905</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7195494770716009</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7149145093554481</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.92291455808441</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.492160310347875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7892291455808442</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7886616490070298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.94711026911997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7269962574044864</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6594711026911997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6540058357179446</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>65.01483576847551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8647311829030514</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6501483576847551</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6390450303723731</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.22020951738337</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8094828685124715</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6622020951738337</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6578865392934419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>56.43033244232216</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9911897569894791</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5643033244232216</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5514363461674181</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>60.99308817550325</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8997526600956917</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6099308817550325</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6006683652058288</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>58.21451742662134</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.054417456189791</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5821451742662134</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5638796110943005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>72.89924653327452</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6553463414311409</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7289924653327451</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7288645560615582</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>71.5481967837092</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7609304359803597</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7154819678370921</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7091364788495987</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>79.68710801996556</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4853885450710853</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7968710801996557</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7977249386000189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>58.57593923822871</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.002215809995929</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.585759392382287</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5660436637469587</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>55.30835041825621</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9971476434419554</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5530835041825621</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5401826879724017</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>66.14875561207278</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7695908330380916</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6614875561207276</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.649908971627123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>65.18239777160701</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8502613057692846</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6518239777160703</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6357197571346584</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>73.12173980743778</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6094798513377706</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7312173980743778</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7266775349402496</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>64.38697566587946</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7798032234112421</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6438697566587946</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6364924092161337</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>56.47445047102484</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9417565912008286</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5647445047102483</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5532920375796472</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>51.64032560835301</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.055940647174915</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5164032560835301</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4937654895244323</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>58.49073088867551</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9224736447135606</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.584907308886755</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5737575748826751</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>84.52313601328731</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4122350391000509</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8452313601328731</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8440172239283295</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>84.37088556129379</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4349277059702824</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8437088556129378</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8325416262387572</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>85.71570688327753</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3820011399065455</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8571570688327753</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8589876127853842</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>67.80043079957439</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7573277238802983</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6780043079957441</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6681734420562737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.59526466491926</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7001415406664213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7259526466491926</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6996303429003886</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.81955726260608</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7619223694006603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7081955726260608</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7009580786752482</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73.06845214924004</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6990271466473739</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7306845214924005</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7140367125097588</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.59049818770059</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8201435675223669</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6159049818770058</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6089759129733766</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.42186351093002</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8148427138725916</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6742186351093002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.662830525046411</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>57.35101514718986</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8999940171837807</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5735101514718985</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5671527033400356</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.28285711814115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7632270122742436</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6828285711814116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6609170388678434</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.9527072033495</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5619752446499964</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7295270720334951</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7136889656680453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.69836244258168</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7428017389339705</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7069836244258169</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6990182333280086</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.73854445107656</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7618554363648097</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6573854445107656</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6556505479870072</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>67.49755620723363</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7302926500638326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6749755620723363</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6721959924936375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.25456102561441</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7707809204856555</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.672545610256144</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6692614931937344</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>50.24325469943512</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.049764712154865</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5024325469943511</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4759188558907185</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>58.22437910362546</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.933319123586019</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5822437910362547</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5678625342777947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>56.33266723760586</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.029936701059341</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5633266723760586</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5344834331140309</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.79687540549659</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.679212393363317</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6879687540549659</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6824724916555498</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>69.93736970042993</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7844880729913711</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6993736970042994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6923921430764045</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>78.74315521760569</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5286505992213885</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7874315521760569</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7875053235780578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>60.00250867222034</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9651428153117498</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6000250867222034</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5811252725965023</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>53.16239759859515</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.032091478258371</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5316239759859515</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5172500455988133</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>64.73542158669193</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7753820404410362</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6473542158669192</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6412931813582725</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>61.7321084092423</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8384614594280719</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6173210840924229</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6046934066831131</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>68.08458550679504</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7412698179172972</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6808458550679504</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6611421442484919</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>63.06109914445626</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7608051165938378</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6306109914445626</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6276327628815241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>57.63388956651875</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9455448230107626</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5763388956651874</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5729077382985007</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>54.03524251939896</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.005469248071313</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5403524251939895</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5137149314697966</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>59.55112068443499</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8737631504734358</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5955112068443499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5902129175017168</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>80.33711364285158</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4663204681128263</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8033711364285159</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8028856697374641</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>82.13090078633898</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4878465774352662</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8213090078633899</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8140075131357607</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>83.53195096843399</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.417316059830288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8353195096843399</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8340685453315142</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>66.18490932735865</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7780596338442087</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6618490932735867</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.650862848580584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>60.15951695083868</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9170025338729222</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6015951695083868</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5880454344957837</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64.71526570299051</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7784259811043739</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6471526570299051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6511975378057866</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.06358186489503</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.07627500295639</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6006358186489502</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5673074776364259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.35829029662887</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.142664586504301</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4835829029662887</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4414143405839694</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.37984757653612</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9255984892447791</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6037984757653613</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5926112586154293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>50.71938338566942</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.138260741035144</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5071938338566943</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.475838646446194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.5697021600533</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8288068811719617</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6756970216005329</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6654600285699843</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.74286974800819</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8715925676127275</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.657428697480082</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6318610989039926</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>71.96939419891176</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5854594827319184</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7196939419891175</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7127164019450627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56.36735611899756</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.21473349169828</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5636735611899757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5254994516428392</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.48002145347279</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9495414987206459</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6048002145347278</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5782914147089157</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.90800958485799</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.034473662575086</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.55908009584858</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5445050702832168</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>47.96788899557954</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.294392610341311</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4796788899557954</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4322018893026741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>42.61386344172527</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.522828886906306</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4261386344172527</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.366156131055409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>53.58930440574746</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.136272242665291</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5358930440574745</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5043894976858267</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.46195901348627</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9198617833356062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6246195901348628</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6035769254184193</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>59.44108513049421</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.116358496497075</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5944108513049421</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5742426034698525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>74.35427642107631</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.668432780355215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.743542764210763</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.740427991680088</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>50.1119386845907</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.337167548388243</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.501119386845907</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4542499737351949</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>49.93416898070053</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.537099646776915</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4993416898070053</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4446723236888515</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>61.02379778371785</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9823239813248316</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6102379778371786</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5967070208716607</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>55.96752567063729</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.074644823124011</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5596752567063729</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5319063839163869</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>64.19493248211489</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8019926078617573</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.641949324821149</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6270889084093276</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>56.0773882127008</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.064440796027581</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.560773882127008</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5048565650145216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>52.23738959679582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.060358760009209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5223738959679582</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5089694993271596</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>45.36665542089465</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.239021219313145</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4536665542089464</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4136805631889948</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>51.8872135572107</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.112787539760272</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5188721355721071</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.505506579576725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>75.97202397944619</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6773891703225672</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7597202397944619</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.751186369618901</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>81.54577461742748</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4614229204133153</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8154577461742749</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8168702297422294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>73.43368022214725</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7807606734335423</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7343368022214725</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7121346603144687</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>59.35380352194511</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.008346380202824</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5935380352194511</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5687857425884764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>